--- a/src/test/resources/excelData/InputData.xlsx
+++ b/src/test/resources/excelData/InputData.xlsx
@@ -4,6 +4,8 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="POST" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="PUT" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="PendingScenarios" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="146">
   <si>
     <t>scenario_name</t>
   </si>
@@ -61,52 +63,58 @@
     <t>/createusers</t>
   </si>
   <si>
-    <t>dheena</t>
+    <t>dhiyas</t>
+  </si>
+  <si>
+    <t>madhum</t>
+  </si>
+  <si>
+    <t>dhiya@gmail.com</t>
+  </si>
+  <si>
+    <t>pl-45</t>
+  </si>
+  <si>
+    <t>Broadway</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>application/json</t>
+  </si>
+  <si>
+    <t>valid mandatory</t>
+  </si>
+  <si>
+    <t>dhiyaas</t>
+  </si>
+  <si>
+    <t>gomathii</t>
+  </si>
+  <si>
+    <t>selvad1@gmail.com</t>
+  </si>
+  <si>
+    <t>invalid endpoint</t>
+  </si>
+  <si>
+    <t>/invalid</t>
+  </si>
+  <si>
+    <t>goma</t>
   </si>
   <si>
     <t>selva</t>
   </si>
   <si>
-    <t>dhee@gmail.com</t>
-  </si>
-  <si>
-    <t>pl-88</t>
-  </si>
-  <si>
-    <t>Broadway</t>
-  </si>
-  <si>
-    <t>New Jersey</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Created</t>
-  </si>
-  <si>
-    <t>application/json</t>
-  </si>
-  <si>
-    <t>valid mandatory</t>
-  </si>
-  <si>
-    <t>dheenat</t>
-  </si>
-  <si>
-    <t>selv@gmail.com</t>
-  </si>
-  <si>
-    <t>invalid endpoint</t>
-  </si>
-  <si>
-    <t>/invalid</t>
-  </si>
-  <si>
-    <t>dheenatha</t>
-  </si>
-  <si>
-    <t>dheen111@gmail.com</t>
+    <t>gurd112@gmail.com</t>
   </si>
   <si>
     <t>pl-00</t>
@@ -127,7 +135,7 @@
     <t>firstname as empty</t>
   </si>
   <si>
-    <t>pl-12</t>
+    <t>pl-31</t>
   </si>
   <si>
     <t>Bad Request</t>
@@ -136,200 +144,320 @@
     <t>firstname as numbers</t>
   </si>
   <si>
+    <t>gurd123</t>
+  </si>
+  <si>
+    <t>firstname as special</t>
+  </si>
+  <si>
+    <t>dheena$an</t>
+  </si>
+  <si>
+    <t>firstname as null</t>
+  </si>
+  <si>
+    <t>lastname as empty</t>
+  </si>
+  <si>
+    <t>dheenathasel</t>
+  </si>
+  <si>
+    <t>lastname as numbers</t>
+  </si>
+  <si>
+    <t>selva123</t>
+  </si>
+  <si>
+    <t>lastname as special</t>
+  </si>
+  <si>
+    <t>selva$ra</t>
+  </si>
+  <si>
+    <t>lastname as null</t>
+  </si>
+  <si>
+    <t>phoneNumber as empty</t>
+  </si>
+  <si>
+    <t>phoneNumber as number more than 10</t>
+  </si>
+  <si>
+    <t>phoneNumber as less than 10</t>
+  </si>
+  <si>
+    <t>phoneNumber as string</t>
+  </si>
+  <si>
+    <t>invalid</t>
+  </si>
+  <si>
+    <t>phoneNumber as null</t>
+  </si>
+  <si>
+    <t>phoneNumber as duplicate</t>
+  </si>
+  <si>
+    <t>randomFirstName</t>
+  </si>
+  <si>
+    <t>randomLastName</t>
+  </si>
+  <si>
+    <t>pl-55</t>
+  </si>
+  <si>
+    <t>Avenue</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>Conflict</t>
+  </si>
+  <si>
+    <t>email as empty</t>
+  </si>
+  <si>
+    <t>email as number</t>
+  </si>
+  <si>
+    <t>email as begin with special</t>
+  </si>
+  <si>
+    <t>@dheen</t>
+  </si>
+  <si>
+    <t>email as end with special</t>
+  </si>
+  <si>
+    <t>dheena@</t>
+  </si>
+  <si>
+    <t>email as end with period</t>
+  </si>
+  <si>
+    <t>dheen@gmail.com.</t>
+  </si>
+  <si>
+    <t>email as duplicate</t>
+  </si>
+  <si>
+    <t>user48@example.com</t>
+  </si>
+  <si>
+    <t>email as null</t>
+  </si>
+  <si>
+    <t>plotnumber as empty</t>
+  </si>
+  <si>
+    <t>plotnumber as number</t>
+  </si>
+  <si>
+    <t>plotnumber as string</t>
+  </si>
+  <si>
+    <t>apt</t>
+  </si>
+  <si>
+    <t>plotnumber as null</t>
+  </si>
+  <si>
+    <t>street as empty</t>
+  </si>
+  <si>
+    <t>street as number</t>
+  </si>
+  <si>
+    <t>street as special</t>
+  </si>
+  <si>
+    <t>avenue@</t>
+  </si>
+  <si>
+    <t>street as null</t>
+  </si>
+  <si>
+    <t>state as empty</t>
+  </si>
+  <si>
+    <t>state as number</t>
+  </si>
+  <si>
+    <t>state as special</t>
+  </si>
+  <si>
+    <t>newJersey$</t>
+  </si>
+  <si>
+    <t>state as null</t>
+  </si>
+  <si>
+    <t>country as empty</t>
+  </si>
+  <si>
+    <t>country as number</t>
+  </si>
+  <si>
+    <t>country as special</t>
+  </si>
+  <si>
+    <t>usa%</t>
+  </si>
+  <si>
+    <t>country as null</t>
+  </si>
+  <si>
+    <t>zipcode as empty</t>
+  </si>
+  <si>
+    <t>zipcode as string</t>
+  </si>
+  <si>
+    <t>zipcode as special</t>
+  </si>
+  <si>
+    <t>62353#</t>
+  </si>
+  <si>
+    <t>zipcode as null</t>
+  </si>
+  <si>
+    <t>contentType</t>
+  </si>
+  <si>
+    <t>Unsupported Media Type</t>
+  </si>
+  <si>
+    <t>feature</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>ziyaa</t>
+  </si>
+  <si>
+    <t>bhaskar</t>
+  </si>
+  <si>
+    <t>ziya4@gmail.com</t>
+  </si>
+  <si>
+    <t>pl-28</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>jaashvii</t>
+  </si>
+  <si>
+    <t>dhinaa</t>
+  </si>
+  <si>
+    <t>jaash4@gmail.com</t>
+  </si>
+  <si>
+    <t>dhiyatha</t>
+  </si>
+  <si>
+    <t>dheen@gmail.com</t>
+  </si>
+  <si>
+    <t>zi10@gmail.com</t>
+  </si>
+  <si>
+    <t>pl-78</t>
+  </si>
+  <si>
     <t>dheena123</t>
   </si>
   <si>
-    <t>firstname as special</t>
-  </si>
-  <si>
-    <t>dheena$an</t>
-  </si>
-  <si>
-    <t>firstname as null</t>
-  </si>
-  <si>
-    <t>lastname as empty</t>
-  </si>
-  <si>
-    <t>lastname as numbers</t>
-  </si>
-  <si>
-    <t>selva123</t>
-  </si>
-  <si>
-    <t>lastname as special</t>
-  </si>
-  <si>
-    <t>selva$ra</t>
-  </si>
-  <si>
-    <t>lastname as null</t>
-  </si>
-  <si>
-    <t>phoneNumber as empty</t>
-  </si>
-  <si>
-    <t>phoneNumber as number more than 10</t>
-  </si>
-  <si>
-    <t>phoneNumber as less than 10</t>
-  </si>
-  <si>
-    <t>phoneNumber as string</t>
-  </si>
-  <si>
-    <t>invalid</t>
-  </si>
-  <si>
-    <t>phoneNumber as null</t>
-  </si>
-  <si>
-    <t>phoneNumber as duplicate</t>
-  </si>
-  <si>
-    <t>randomFirstName</t>
-  </si>
-  <si>
-    <t>randomLastName</t>
-  </si>
-  <si>
-    <t>dheen1110@gmail.com</t>
-  </si>
-  <si>
-    <t>pl-55</t>
-  </si>
-  <si>
-    <t>Avenue</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>Conflict</t>
-  </si>
-  <si>
-    <t>email as empty</t>
-  </si>
-  <si>
-    <t>email as number</t>
-  </si>
-  <si>
-    <t>email as begin with special</t>
-  </si>
-  <si>
-    <t>@dheen</t>
-  </si>
-  <si>
-    <t>email as end with special</t>
-  </si>
-  <si>
-    <t>dheena@</t>
-  </si>
-  <si>
-    <t>email as end with period</t>
-  </si>
-  <si>
-    <t>dheen@gmail.com.</t>
-  </si>
-  <si>
-    <t>email as duplicate</t>
-  </si>
-  <si>
-    <t>user48@example.com</t>
-  </si>
-  <si>
-    <t>email as null</t>
-  </si>
-  <si>
-    <t>plotnumber as empty</t>
-  </si>
-  <si>
-    <t>plotnumber as number</t>
-  </si>
-  <si>
-    <t>plotnumber as string</t>
-  </si>
-  <si>
-    <t>apt</t>
-  </si>
-  <si>
-    <t>plotnumber as null</t>
-  </si>
-  <si>
-    <t>street as empty</t>
-  </si>
-  <si>
-    <t>pl-13</t>
-  </si>
-  <si>
-    <t>street as number</t>
-  </si>
-  <si>
-    <t>street as special</t>
-  </si>
-  <si>
-    <t>avenue@</t>
-  </si>
-  <si>
-    <t>street as null</t>
-  </si>
-  <si>
-    <t>state as empty</t>
-  </si>
-  <si>
-    <t>state as number</t>
-  </si>
-  <si>
-    <t>state as special</t>
-  </si>
-  <si>
-    <t>newJersey$</t>
-  </si>
-  <si>
-    <t>state as null</t>
-  </si>
-  <si>
-    <t>country as empty</t>
-  </si>
-  <si>
-    <t>country as number</t>
-  </si>
-  <si>
-    <t>country as special</t>
-  </si>
-  <si>
-    <t>usa%</t>
-  </si>
-  <si>
-    <t>country as null</t>
-  </si>
-  <si>
-    <t>zipcode as empty</t>
-  </si>
-  <si>
-    <t>zipcode as string</t>
-  </si>
-  <si>
-    <t>zipcode as special</t>
-  </si>
-  <si>
-    <t>62353#</t>
-  </si>
-  <si>
-    <t>zipcode as null</t>
-  </si>
-  <si>
-    <t>contentType</t>
-  </si>
-  <si>
-    <t>Unsupported Media Type</t>
+    <t>contact number</t>
+  </si>
+  <si>
+    <t>michigana11@gmail.com</t>
+  </si>
+  <si>
+    <t>pl-91</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>zi@gmail.com.</t>
+  </si>
+  <si>
+    <t>user522@example.com</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>Authentication</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>status code</t>
+  </si>
+  <si>
+    <t>status line</t>
+  </si>
+  <si>
+    <t>userid</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>POST - valid all</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>Unauthorized</t>
+  </si>
+  <si>
+    <t>basic</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>Method Not Allowed</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>PUT - Valid all</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="13">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -364,6 +492,35 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.0"/>
+      <color rgb="FFA31515"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF4285F4"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF4285F4"/>
+      <name val="IBMPlexMono"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF2A00FF"/>
+      <name val="IBMPlexMono"/>
+    </font>
+    <font>
+      <color rgb="FF46BDC6"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -406,7 +563,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="45">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -462,6 +619,78 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -471,6 +700,14 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -743,7 +980,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="6">
-        <v>7.263826373E9</v>
+        <v>8.863826373E9</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>18</v>
@@ -784,13 +1021,13 @@
         <v>26</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E3" s="7">
-        <v>7.268326733E9</v>
+        <v>8.868326733E9</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -824,25 +1061,25 @@
     </row>
     <row r="4">
       <c r="A4" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E4" s="12">
-        <v>7.739998788E9</v>
+        <v>8.839998788E9</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>20</v>
@@ -860,7 +1097,7 @@
         <v>404.0</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>24</v>
@@ -883,25 +1120,25 @@
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E5" s="6">
-        <v>7.739998788E9</v>
+        <v>8.839998788E9</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>20</v>
@@ -919,7 +1156,7 @@
         <v>404.0</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>24</v>
@@ -927,23 +1164,23 @@
     </row>
     <row r="6">
       <c r="A6" s="15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="12">
-        <v>7.739998788E9</v>
+        <v>32</v>
+      </c>
+      <c r="E6" s="6">
+        <v>8.839998788E9</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>20</v>
@@ -961,7 +1198,7 @@
         <v>400.0</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N6" s="13" t="s">
         <v>24</v>
@@ -984,25 +1221,25 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E7" s="6">
-        <v>7.739998788E9</v>
+        <v>8.839998788E9</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>20</v>
@@ -1020,7 +1257,7 @@
         <v>400.0</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>24</v>
@@ -1028,25 +1265,25 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E8" s="6">
-        <v>7.739998788E9</v>
+        <v>8.839998788E9</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>20</v>
@@ -1064,7 +1301,7 @@
         <v>400.0</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N8" s="4" t="s">
         <v>24</v>
@@ -1072,25 +1309,25 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E9" s="6">
-        <v>7.739998788E9</v>
+        <v>8.839998788E9</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>20</v>
@@ -1108,7 +1345,7 @@
         <v>400.0</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>24</v>
@@ -1116,23 +1353,23 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="6">
-        <v>7.739998788E9</v>
+        <v>8.839998788E9</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>20</v>
@@ -1150,7 +1387,7 @@
         <v>400.0</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>24</v>
@@ -1158,25 +1395,25 @@
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E11" s="6">
-        <v>7.739998788E9</v>
+        <v>8.839998788E9</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>20</v>
@@ -1194,7 +1431,7 @@
         <v>400.0</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>24</v>
@@ -1202,25 +1439,25 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E12" s="6">
-        <v>7.739998788E9</v>
+        <v>8.839998788E9</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>20</v>
@@ -1238,7 +1475,7 @@
         <v>400.0</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N12" s="4" t="s">
         <v>24</v>
@@ -1246,25 +1483,25 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E13" s="6">
-        <v>7.739998788E9</v>
+        <v>8.839998788E9</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>20</v>
@@ -1282,7 +1519,7 @@
         <v>400.0</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N13" s="4" t="s">
         <v>24</v>
@@ -1290,23 +1527,23 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>20</v>
@@ -1324,7 +1561,7 @@
         <v>400.0</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>24</v>
@@ -1332,25 +1569,25 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E15" s="4">
         <v>2.3723643923323E13</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>20</v>
@@ -1368,7 +1605,7 @@
         <v>400.0</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N15" s="4" t="s">
         <v>24</v>
@@ -1376,25 +1613,25 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E16" s="4">
         <v>2524234.0</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>20</v>
@@ -1412,7 +1649,7 @@
         <v>400.0</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N16" s="4" t="s">
         <v>24</v>
@@ -1420,25 +1657,25 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>20</v>
@@ -1456,7 +1693,7 @@
         <v>400.0</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N17" s="4" t="s">
         <v>24</v>
@@ -1464,25 +1701,25 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>20</v>
@@ -1500,7 +1737,7 @@
         <v>400.0</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N18" s="4" t="s">
         <v>24</v>
@@ -1508,31 +1745,31 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E19" s="6">
         <v>1.535061399E9</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>22</v>
@@ -1544,7 +1781,7 @@
         <v>409.0</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N19" s="4" t="s">
         <v>24</v>
@@ -1552,23 +1789,23 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E20" s="6">
-        <v>7.739998788E9</v>
+        <v>8.839998788E9</v>
       </c>
       <c r="F20" s="18"/>
-      <c r="G20" s="6" t="s">
-        <v>38</v>
+      <c r="G20" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>20</v>
@@ -1586,7 +1823,7 @@
         <v>400.0</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N20" s="4" t="s">
         <v>24</v>
@@ -1594,25 +1831,25 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E21" s="6">
-        <v>7.739998788E9</v>
+        <v>8.839998788E9</v>
       </c>
       <c r="F21" s="4">
         <v>1.34144314E8</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>38</v>
+      <c r="G21" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>20</v>
@@ -1630,7 +1867,7 @@
         <v>400.0</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N21" s="4" t="s">
         <v>24</v>
@@ -1638,25 +1875,25 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E22" s="6">
-        <v>7.739998788E9</v>
+        <v>8.839998788E9</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>38</v>
+        <v>70</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>20</v>
@@ -1674,7 +1911,7 @@
         <v>400.0</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N22" s="4" t="s">
         <v>24</v>
@@ -1682,25 +1919,25 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E23" s="6">
-        <v>7.739998788E9</v>
+        <v>8.839998788E9</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>38</v>
+        <v>72</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>20</v>
@@ -1718,7 +1955,7 @@
         <v>400.0</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N23" s="4" t="s">
         <v>24</v>
@@ -1726,25 +1963,25 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E24" s="6">
-        <v>7.739998788E9</v>
+        <v>8.839998788E9</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>38</v>
+        <v>74</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>20</v>
@@ -1762,7 +1999,7 @@
         <v>400.0</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N24" s="4" t="s">
         <v>24</v>
@@ -1770,31 +2007,31 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E25" s="6">
-        <v>7.779998788E9</v>
+        <v>8.839998788E9</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>22</v>
@@ -1806,7 +2043,7 @@
         <v>409.0</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N25" s="4" t="s">
         <v>24</v>
@@ -1814,25 +2051,25 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E26" s="6">
-        <v>7.739998788E9</v>
+        <v>8.839998788E9</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>20</v>
@@ -1850,7 +2087,7 @@
         <v>400.0</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N26" s="4" t="s">
         <v>24</v>
@@ -1858,22 +2095,22 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E27" s="6">
-        <v>7.739998788E9</v>
+        <v>8.839998788E9</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G27" s="18"/>
       <c r="H27" s="6" t="s">
@@ -1892,7 +2129,7 @@
         <v>400.0</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N27" s="4" t="s">
         <v>24</v>
@@ -1900,22 +2137,22 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E28" s="6">
-        <v>7.739998788E9</v>
+        <v>8.839998788E9</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G28" s="4">
         <v>345.0</v>
@@ -1936,7 +2173,7 @@
         <v>400.0</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N28" s="4" t="s">
         <v>24</v>
@@ -1944,25 +2181,25 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E29" s="6">
-        <v>7.739998788E9</v>
+        <v>8.839998788E9</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>20</v>
@@ -1980,7 +2217,7 @@
         <v>400.0</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N29" s="4" t="s">
         <v>24</v>
@@ -1988,25 +2225,25 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E30" s="6">
-        <v>7.739998788E9</v>
+        <v>8.839998788E9</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>20</v>
@@ -2024,7 +2261,7 @@
         <v>400.0</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N30" s="4" t="s">
         <v>24</v>
@@ -2032,25 +2269,25 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E31" s="6">
-        <v>7.739998788E9</v>
+        <v>8.839998788E9</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H31" s="18"/>
       <c r="I31" s="6" t="s">
@@ -2066,7 +2303,7 @@
         <v>400.0</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N31" s="4" t="s">
         <v>24</v>
@@ -2074,25 +2311,25 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E32" s="6">
-        <v>7.739998788E9</v>
+        <v>8.839998788E9</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H32" s="4">
         <v>234234.0</v>
@@ -2110,7 +2347,7 @@
         <v>400.0</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N32" s="4" t="s">
         <v>24</v>
@@ -2118,28 +2355,28 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E33" s="6">
-        <v>7.739998788E9</v>
+        <v>8.839998788E9</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>21</v>
@@ -2154,7 +2391,7 @@
         <v>400.0</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N33" s="4" t="s">
         <v>24</v>
@@ -2162,28 +2399,28 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E34" s="6">
-        <v>7.739998788E9</v>
+        <v>8.839998788E9</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>21</v>
@@ -2198,7 +2435,7 @@
         <v>400.0</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N34" s="4" t="s">
         <v>24</v>
@@ -2206,25 +2443,25 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E35" s="6">
-        <v>7.739998788E9</v>
+        <v>8.839998788E9</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>20</v>
@@ -2240,7 +2477,7 @@
         <v>400.0</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N35" s="4" t="s">
         <v>24</v>
@@ -2248,25 +2485,25 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E36" s="6">
-        <v>7.739998788E9</v>
+        <v>8.839998788E9</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>20</v>
@@ -2284,7 +2521,7 @@
         <v>400.0</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N36" s="4" t="s">
         <v>24</v>
@@ -2292,31 +2529,31 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E37" s="6">
-        <v>7.739998788E9</v>
+        <v>8.839998788E9</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>20</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J37" s="6" t="s">
         <v>22</v>
@@ -2328,7 +2565,7 @@
         <v>400.0</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N37" s="4" t="s">
         <v>24</v>
@@ -2336,31 +2573,31 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E38" s="6">
-        <v>7.739998788E9</v>
+        <v>8.839998788E9</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>20</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J38" s="6" t="s">
         <v>22</v>
@@ -2372,7 +2609,7 @@
         <v>400.0</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N38" s="4" t="s">
         <v>24</v>
@@ -2380,25 +2617,25 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E39" s="6">
-        <v>7.739998788E9</v>
+        <v>8.839998788E9</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>20</v>
@@ -2414,7 +2651,7 @@
         <v>400.0</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N39" s="4" t="s">
         <v>24</v>
@@ -2422,25 +2659,25 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E40" s="6">
-        <v>7.739998788E9</v>
+        <v>8.839998788E9</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>20</v>
@@ -2458,7 +2695,7 @@
         <v>400.0</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N40" s="4" t="s">
         <v>24</v>
@@ -2466,25 +2703,25 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E41" s="6">
-        <v>7.739998788E9</v>
+        <v>8.839998788E9</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>20</v>
@@ -2493,7 +2730,7 @@
         <v>21</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K41" s="6">
         <v>837323.0</v>
@@ -2502,7 +2739,7 @@
         <v>400.0</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N41" s="4" t="s">
         <v>24</v>
@@ -2510,25 +2747,25 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E42" s="6">
-        <v>7.739998788E9</v>
+        <v>8.839998788E9</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>20</v>
@@ -2537,7 +2774,7 @@
         <v>21</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K42" s="6">
         <v>837323.0</v>
@@ -2546,7 +2783,7 @@
         <v>400.0</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N42" s="4" t="s">
         <v>24</v>
@@ -2554,25 +2791,25 @@
     </row>
     <row r="43">
       <c r="A43" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>30</v>
+      <c r="C43" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E43" s="6">
-        <v>7.739998788E9</v>
+        <v>8.839998788E9</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>82</v>
+        <v>33</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>20</v>
@@ -2588,7 +2825,7 @@
         <v>400.0</v>
       </c>
       <c r="M43" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N43" s="10" t="s">
         <v>24</v>
@@ -2611,25 +2848,25 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E44" s="6">
-        <v>7.739998788E9</v>
+        <v>8.839998788E9</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>20</v>
@@ -2641,13 +2878,13 @@
         <v>22</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L44" s="4">
         <v>400.0</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N44" s="4" t="s">
         <v>24</v>
@@ -2655,25 +2892,25 @@
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E45" s="6">
-        <v>7.739998788E9</v>
+        <v>8.839998788E9</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>20</v>
@@ -2685,13 +2922,13 @@
         <v>22</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L45" s="4">
         <v>400.0</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N45" s="4" t="s">
         <v>24</v>
@@ -2699,25 +2936,25 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E46" s="6">
-        <v>7.739998788E9</v>
+        <v>8.839998788E9</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>20</v>
@@ -2729,13 +2966,13 @@
         <v>22</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L46" s="4">
         <v>400.0</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N46" s="4" t="s">
         <v>24</v>
@@ -2743,25 +2980,25 @@
     </row>
     <row r="47">
       <c r="A47" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="12" t="s">
-        <v>30</v>
+      <c r="C47" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E47" s="6">
-        <v>7.739998788E9</v>
+        <v>8.839998788E9</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>82</v>
+        <v>33</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="H47" s="12" t="s">
         <v>20</v>
@@ -2779,10 +3016,10 @@
         <v>415.0</v>
       </c>
       <c r="M47" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N47" s="13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O47" s="14"/>
       <c r="P47" s="14"/>
@@ -2803,4 +3040,2393 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="27">
+        <v>9.969900313E9</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="28">
+        <v>543215.0</v>
+      </c>
+      <c r="M2" s="28">
+        <v>200.0</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="31">
+        <v>9.16990038E9</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="32">
+        <v>200.0</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="O3" s="29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="35">
+        <v>7.239908788E9</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="36">
+        <v>837323.0</v>
+      </c>
+      <c r="M4" s="36">
+        <v>404.0</v>
+      </c>
+      <c r="N4" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="35">
+        <v>7.239908788E9</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="36">
+        <v>837323.0</v>
+      </c>
+      <c r="M5" s="36">
+        <v>404.0</v>
+      </c>
+      <c r="N5" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="37"/>
+      <c r="E6" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="38">
+        <v>7.239908788E9</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="28">
+        <v>837323.0</v>
+      </c>
+      <c r="M6" s="28">
+        <v>400.0</v>
+      </c>
+      <c r="N6" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="38">
+        <v>7.239908788E9</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="39">
+        <v>837323.0</v>
+      </c>
+      <c r="M7" s="39">
+        <v>400.0</v>
+      </c>
+      <c r="N7" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="38">
+        <v>7.239908788E9</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="39">
+        <v>837323.0</v>
+      </c>
+      <c r="M8" s="39">
+        <v>400.0</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="38">
+        <v>7.239908788E9</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="39">
+        <v>837323.0</v>
+      </c>
+      <c r="M9" s="39">
+        <v>400.0</v>
+      </c>
+      <c r="N9" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38">
+        <v>7.239908788E9</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="39">
+        <v>837323.0</v>
+      </c>
+      <c r="M10" s="39">
+        <v>400.0</v>
+      </c>
+      <c r="N10" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="38">
+        <v>7.239908788E9</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="39">
+        <v>837323.0</v>
+      </c>
+      <c r="M11" s="39">
+        <v>400.0</v>
+      </c>
+      <c r="N11" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="38">
+        <v>7.239908788E9</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="39">
+        <v>837323.0</v>
+      </c>
+      <c r="M12" s="39">
+        <v>400.0</v>
+      </c>
+      <c r="N12" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="38">
+        <v>7.239908788E9</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="39">
+        <v>837323.0</v>
+      </c>
+      <c r="M13" s="39">
+        <v>400.0</v>
+      </c>
+      <c r="N13" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="O13" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="37"/>
+      <c r="G14" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="39">
+        <v>837323.0</v>
+      </c>
+      <c r="M14" s="39">
+        <v>400.0</v>
+      </c>
+      <c r="N14" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="39">
+        <v>2.3723643923323E13</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="39">
+        <v>837323.0</v>
+      </c>
+      <c r="M15" s="39">
+        <v>400.0</v>
+      </c>
+      <c r="N15" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="O15" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="39">
+        <v>2524234.0</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I16" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="39">
+        <v>837323.0</v>
+      </c>
+      <c r="M16" s="39">
+        <v>400.0</v>
+      </c>
+      <c r="N16" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="O16" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I17" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="39">
+        <v>837323.0</v>
+      </c>
+      <c r="M17" s="39">
+        <v>400.0</v>
+      </c>
+      <c r="N17" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="O17" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I18" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="39">
+        <v>837323.0</v>
+      </c>
+      <c r="M18" s="39">
+        <v>400.0</v>
+      </c>
+      <c r="N18" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="O18" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="41">
+        <v>8.129743971E9</v>
+      </c>
+      <c r="G19" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="I19" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="41">
+        <v>954321.0</v>
+      </c>
+      <c r="M19" s="41">
+        <v>409.0</v>
+      </c>
+      <c r="N19" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="O19" s="40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="38">
+        <v>7.239908788E9</v>
+      </c>
+      <c r="G20" s="37"/>
+      <c r="H20" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I20" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="39">
+        <v>837323.0</v>
+      </c>
+      <c r="M20" s="39">
+        <v>400.0</v>
+      </c>
+      <c r="N20" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="O20" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="38">
+        <v>7.239908788E9</v>
+      </c>
+      <c r="G21" s="39">
+        <v>1.34144314E8</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I21" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="39">
+        <v>837323.0</v>
+      </c>
+      <c r="M21" s="39">
+        <v>400.0</v>
+      </c>
+      <c r="N21" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="O21" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="38">
+        <v>7.239908788E9</v>
+      </c>
+      <c r="G22" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I22" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="39">
+        <v>837323.0</v>
+      </c>
+      <c r="M22" s="39">
+        <v>400.0</v>
+      </c>
+      <c r="N22" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="O22" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="38">
+        <v>7.239908788E9</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I23" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="39">
+        <v>837323.0</v>
+      </c>
+      <c r="M23" s="39">
+        <v>400.0</v>
+      </c>
+      <c r="N23" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="O23" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="38">
+        <v>7.239908788E9</v>
+      </c>
+      <c r="G24" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I24" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="39">
+        <v>837323.0</v>
+      </c>
+      <c r="M24" s="39">
+        <v>400.0</v>
+      </c>
+      <c r="N24" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="O24" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="41">
+        <v>2.009000009E9</v>
+      </c>
+      <c r="G25" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="I25" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="J25" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="K25" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="41">
+        <v>954321.0</v>
+      </c>
+      <c r="M25" s="41">
+        <v>409.0</v>
+      </c>
+      <c r="N25" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="O25" s="40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="38">
+        <v>7.239908788E9</v>
+      </c>
+      <c r="G26" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I26" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="39">
+        <v>837323.0</v>
+      </c>
+      <c r="M26" s="39">
+        <v>400.0</v>
+      </c>
+      <c r="N26" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="O26" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="38">
+        <v>7.239908788E9</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="39">
+        <v>837323.0</v>
+      </c>
+      <c r="M27" s="39">
+        <v>400.0</v>
+      </c>
+      <c r="N27" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="O27" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="38">
+        <v>7.239908788E9</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H28" s="39">
+        <v>345.0</v>
+      </c>
+      <c r="I28" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="39">
+        <v>837323.0</v>
+      </c>
+      <c r="M28" s="39">
+        <v>400.0</v>
+      </c>
+      <c r="N28" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="O28" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="38">
+        <v>7.239908788E9</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H29" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="I29" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" s="39">
+        <v>837323.0</v>
+      </c>
+      <c r="M29" s="39">
+        <v>400.0</v>
+      </c>
+      <c r="N29" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="O29" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="38">
+        <v>7.239908788E9</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H30" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" s="39">
+        <v>837323.0</v>
+      </c>
+      <c r="M30" s="39">
+        <v>400.0</v>
+      </c>
+      <c r="N30" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="O30" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="38">
+        <v>7.239908788E9</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" s="39">
+        <v>837323.0</v>
+      </c>
+      <c r="M31" s="39">
+        <v>400.0</v>
+      </c>
+      <c r="N31" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="O31" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="38">
+        <v>7.239908788E9</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I32" s="39">
+        <v>234234.0</v>
+      </c>
+      <c r="J32" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" s="39">
+        <v>837323.0</v>
+      </c>
+      <c r="M32" s="39">
+        <v>400.0</v>
+      </c>
+      <c r="N32" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="O32" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="38">
+        <v>7.239908788E9</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I33" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="J33" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" s="39">
+        <v>837323.0</v>
+      </c>
+      <c r="M33" s="39">
+        <v>400.0</v>
+      </c>
+      <c r="N33" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="O33" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="38">
+        <v>7.239908788E9</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I34" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="J34" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L34" s="39">
+        <v>837323.0</v>
+      </c>
+      <c r="M34" s="39">
+        <v>400.0</v>
+      </c>
+      <c r="N34" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="O34" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="38">
+        <v>7.239908788E9</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I35" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L35" s="39">
+        <v>837323.0</v>
+      </c>
+      <c r="M35" s="39">
+        <v>400.0</v>
+      </c>
+      <c r="N35" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="O35" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="38">
+        <v>7.239908788E9</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I36" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="39">
+        <v>134134.0</v>
+      </c>
+      <c r="K36" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L36" s="39">
+        <v>837323.0</v>
+      </c>
+      <c r="M36" s="39">
+        <v>400.0</v>
+      </c>
+      <c r="N36" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="O36" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="38">
+        <v>7.239908788E9</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I37" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="K37" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L37" s="39">
+        <v>837323.0</v>
+      </c>
+      <c r="M37" s="39">
+        <v>400.0</v>
+      </c>
+      <c r="N37" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="O37" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" s="38">
+        <v>7.239908788E9</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I38" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="K38" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L38" s="39">
+        <v>837323.0</v>
+      </c>
+      <c r="M38" s="39">
+        <v>400.0</v>
+      </c>
+      <c r="N38" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="O38" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="38">
+        <v>7.239908788E9</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I39" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K39" s="37"/>
+      <c r="L39" s="39">
+        <v>837323.0</v>
+      </c>
+      <c r="M39" s="39">
+        <v>400.0</v>
+      </c>
+      <c r="N39" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="O39" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="38">
+        <v>7.239908788E9</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I40" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40" s="39">
+        <v>234242.0</v>
+      </c>
+      <c r="L40" s="39">
+        <v>837323.0</v>
+      </c>
+      <c r="M40" s="39">
+        <v>400.0</v>
+      </c>
+      <c r="N40" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="O40" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" s="38">
+        <v>7.239908788E9</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I41" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K41" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="L41" s="39">
+        <v>837323.0</v>
+      </c>
+      <c r="M41" s="39">
+        <v>400.0</v>
+      </c>
+      <c r="N41" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="O41" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" s="38">
+        <v>7.239908788E9</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I42" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="L42" s="39">
+        <v>837323.0</v>
+      </c>
+      <c r="M42" s="39">
+        <v>400.0</v>
+      </c>
+      <c r="N42" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="O42" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" s="38">
+        <v>7.239908788E9</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L43" s="9"/>
+      <c r="M43" s="42">
+        <v>400.0</v>
+      </c>
+      <c r="N43" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O43" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E44" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44" s="38">
+        <v>7.239908788E9</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I44" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K44" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L44" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="M44" s="39">
+        <v>400.0</v>
+      </c>
+      <c r="N44" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="O44" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E45" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" s="38">
+        <v>7.239908788E9</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I45" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K45" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L45" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="M45" s="39">
+        <v>400.0</v>
+      </c>
+      <c r="N45" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="O45" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" s="38">
+        <v>7.239908788E9</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I46" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K46" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L46" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="M46" s="39">
+        <v>400.0</v>
+      </c>
+      <c r="N46" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="O46" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E47" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" s="38">
+        <v>7.239908788E9</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I47" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="K47" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="L47" s="36">
+        <v>837300.0</v>
+      </c>
+      <c r="M47" s="36">
+        <v>415.0</v>
+      </c>
+      <c r="N47" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="O47" s="33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="12.63"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="39">
+        <v>401.0</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="39">
+        <v>405.0</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="39">
+        <v>405.0</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="39">
+        <v>405.0</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="44">
+        <v>401.0</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="39">
+        <v>405.0</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="39">
+        <v>405.0</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="39">
+        <v>405.0</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>